--- a/biology/Botanique/Rhodorhiza/Rhodorhiza.xlsx
+++ b/biology/Botanique/Rhodorhiza/Rhodorhiza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Convolvulus est un genre de plantes herbacées annuelles ou vivaces de la famille des Convolvulaceae. Avec le genre Calystegia, il forme ce qu'on appelle communément les liserons.
 Plusieurs espèces sont des adventices des cultures (« mauvaises herbes »), parce qu'elles peuvent étouffer les plantes sur lesquelles elles poussent, principalement sur les sols labourés (le labour provoquant un bouturage et créant des conditions très favorables aux liserons). Certaines sont cultivées pour leurs fleurs attrayantes ou dans le cadre de la lutte intégrée (les liserons attirent les syrphes) .
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Convolvulus althaeoides L.
 Convolvulus angustissimus
